--- a/biology/Médecine/Priscilla_Kincaid-Smith/Priscilla_Kincaid-Smith.xlsx
+++ b/biology/Médecine/Priscilla_Kincaid-Smith/Priscilla_Kincaid-Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Priscilla Kincaid-Smith, née le 30 novembre 1926 à Johannesburg et morte le 18 juillet 2015 à Melbourne[1],[2], est une néphrologue australienne d'origine sud-africaine[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Priscilla Kincaid-Smith, née le 30 novembre 1926 à Johannesburg et morte le 18 juillet 2015 à Melbourne est une néphrologue australienne d'origine sud-africaine.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée en médecine de l'Université du Witwatersrand (1950), elle travaille à l'hôpital Baragwanath de 1951 à 1953, puis part à Londres pour se spécialiser en pathologie clinique à l'hôpital Hammersmith. Elle commence à travailler sur l'hypertension et le système rénal avec John McMichael, puis s'établit en Australie avec son mari, Ken Fairley[3].
-Elle commence à l'université de Melbourne (1961-1965) et oriente ses recherches vers la prévention de l'insuffisance rénale. Elle démontre le rôle des analgésiques contenant de la phénacétine dans le développement du cancer du rein[3].
-Directrice du département de néphrologie au Royal Melbourne Hospital (1967-1991), professeur de médecine à l'université de Melbourne (1975-1991), néphrologue au Royal Women's Hospital de Melbourne (1976-1991), elle prend sa retraite en 1991[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée en médecine de l'Université du Witwatersrand (1950), elle travaille à l'hôpital Baragwanath de 1951 à 1953, puis part à Londres pour se spécialiser en pathologie clinique à l'hôpital Hammersmith. Elle commence à travailler sur l'hypertension et le système rénal avec John McMichael, puis s'établit en Australie avec son mari, Ken Fairley.
+Elle commence à l'université de Melbourne (1961-1965) et oriente ses recherches vers la prévention de l'insuffisance rénale. Elle démontre le rôle des analgésiques contenant de la phénacétine dans le développement du cancer du rein.
+Directrice du département de néphrologie au Royal Melbourne Hospital (1967-1991), professeur de médecine à l'université de Melbourne (1975-1991), néphrologue au Royal Women's Hospital de Melbourne (1976-1991), elle prend sa retraite en 1991.
 Commandeur de l'Ordre de l'Empire britannique (1975), elle devient compagnon de l'Ordre d'Australie en 1989.
 </t>
         </is>
